--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value640.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value640.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.237719388847705</v>
+        <v>1.188888072967529</v>
       </c>
       <c r="B1">
-        <v>2.301261207302447</v>
+        <v>2.362487316131592</v>
       </c>
       <c r="C1">
-        <v>3.196271858724602</v>
+        <v>4.224532127380371</v>
       </c>
       <c r="D1">
-        <v>3.549849318695188</v>
+        <v>2.879838705062866</v>
       </c>
       <c r="E1">
-        <v>1.104742642212356</v>
+        <v>1.12792444229126</v>
       </c>
     </row>
   </sheetData>
